--- a/ユーザー情報/ユーザー情報.xlsx
+++ b/ユーザー情報/ユーザー情報.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -670,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,12 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +1033,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,22 +1148,22 @@
       <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AF1" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1206,12 +1200,12 @@
       <c r="Z2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="6">
@@ -1520,7 +1514,9 @@
         <v>38</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="17" t="s">
         <v>52</v>
       </c>
@@ -1572,7 +1568,9 @@
         <v>41</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="17" t="s">
         <v>52</v>
       </c>
@@ -1654,7 +1652,9 @@
         <v>44</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="17" t="s">
         <v>50</v>
       </c>
@@ -1902,7 +1902,9 @@
         <v>34</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="17" t="s">
         <v>52</v>
       </c>

--- a/ユーザー情報/ユーザー情報.xlsx
+++ b/ユーザー情報/ユーザー情報.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -319,10 +319,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A0D30C0847DF8193E</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>nextdrivehonsha</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -542,6 +538,14 @@
   </si>
   <si>
     <t>千葉県市原市</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エアコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J2C49CC4B738B45EE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1027,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,28 +1052,28 @@
     <col min="8" max="8" width="8.21875" style="21" customWidth="1"/>
     <col min="9" max="9" width="7" style="21" customWidth="1"/>
     <col min="10" max="10" width="6.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="21" customWidth="1"/>
-    <col min="12" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" style="1" customWidth="1"/>
-    <col min="28" max="29" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="8.77734375" style="21" customWidth="1"/>
+    <col min="13" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.44140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="25.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="25.2">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>29</v>
@@ -1092,64 +1096,64 @@
         <v>26</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="AB1" s="23" t="s">
         <v>59</v>
@@ -1166,8 +1170,11 @@
       <c r="AF1" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="18">
+      <c r="AG1" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="18">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
@@ -1181,7 +1188,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -1191,23 +1198,24 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="24"/>
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="24"/>
       <c r="AF2" s="24"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" s="24"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>30</v>
@@ -1226,29 +1234,29 @@
         <v>27</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="6">
+        <v>49</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="6">
         <v>31.98</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>131.29</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>5.55</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
@@ -1256,52 +1264,55 @@
         <v>0</v>
       </c>
       <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
         <v>4.8</v>
       </c>
-      <c r="S3" s="7">
+      <c r="T3" s="7">
         <v>0.95</v>
       </c>
-      <c r="T3" s="7">
+      <c r="U3" s="7">
         <v>1</v>
       </c>
-      <c r="U3" s="7">
+      <c r="V3" s="7">
         <v>0.04</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>25.4</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>4</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>100</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <v>20</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>280</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>5.9</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AC3" s="6">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AE3" s="7">
         <v>0.05</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AF3" s="7">
         <v>1</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AG3" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1309,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>31</v>
@@ -1324,53 +1335,53 @@
         <v>28</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="6">
+        <v>49</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="6">
         <v>35.378999999999998</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>139.559</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>3.6</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
         <v>0</v>
       </c>
       <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
         <v>5</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>3</v>
       </c>
-      <c r="S4" s="7">
+      <c r="T4" s="7">
         <v>0.95</v>
       </c>
-      <c r="T4" s="7">
+      <c r="U4" s="7">
         <v>1</v>
       </c>
-      <c r="U4" s="7">
+      <c r="V4" s="7">
         <v>0.02</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="6">
         <v>25.4</v>
       </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
       <c r="X4" s="6">
         <v>0</v>
       </c>
@@ -1381,25 +1392,28 @@
         <v>0</v>
       </c>
       <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
         <v>5.9</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AC4" s="6">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AE4" s="7">
         <v>0.05</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AF4" s="7">
         <v>1</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AG4" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>36</v>
@@ -1422,53 +1436,53 @@
         <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="6">
+        <v>49</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="6">
         <v>35.434399999999997</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>139.5453</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>1.8</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
       <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
         <v>9</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="7">
+      <c r="T5" s="7">
         <v>0.95</v>
       </c>
-      <c r="T5" s="7">
+      <c r="U5" s="7">
         <v>1</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <v>0.04</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <v>25.4</v>
       </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
       <c r="X5" s="6">
         <v>0</v>
       </c>
@@ -1479,25 +1493,28 @@
         <v>0</v>
       </c>
       <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
         <v>6.2</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AC5" s="6">
         <v>-3</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>3</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AE5" s="7">
         <v>0.05</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AF5" s="7">
         <v>1</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AG5" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18">
+    <row r="6" spans="1:33" ht="18">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1505,7 +1522,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
@@ -1518,19 +1535,21 @@
         <v>28</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1550,8 +1569,9 @@
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
-    </row>
-    <row r="7" spans="1:32" ht="17.399999999999999">
+      <c r="AG6" s="6"/>
+    </row>
+    <row r="7" spans="1:33" ht="17.399999999999999">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>42</v>
@@ -1572,53 +1592,53 @@
         <v>28</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="6">
+        <v>49</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="6">
         <v>35.507800000000003</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>139.35138000000001</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>7.5</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
         <v>0</v>
       </c>
       <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
         <v>4</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>6</v>
       </c>
-      <c r="S7" s="7">
+      <c r="T7" s="7">
         <v>0.95</v>
       </c>
-      <c r="T7" s="7">
+      <c r="U7" s="7">
         <v>1</v>
       </c>
-      <c r="U7" s="7">
+      <c r="V7" s="7">
         <v>0.04</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>25.4</v>
       </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
       <c r="X7" s="6">
         <v>0</v>
       </c>
@@ -1628,14 +1648,17 @@
       <c r="Z7" s="6">
         <v>0</v>
       </c>
-      <c r="AA7" s="6"/>
+      <c r="AA7" s="6">
+        <v>0</v>
+      </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
-    </row>
-    <row r="8" spans="1:32" ht="18">
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" ht="18">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1643,10 +1666,10 @@
         <v>45</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
@@ -1656,19 +1679,21 @@
         <v>28</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="8"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1688,77 +1713,78 @@
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="6"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="6">
+        <v>62</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="6">
         <v>33.977699999999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>131.93</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>4.9320000000000004</v>
       </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
       <c r="P9" s="6">
         <v>0</v>
       </c>
       <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
         <v>3</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>5.5</v>
       </c>
-      <c r="S9" s="7">
+      <c r="T9" s="7">
         <v>0.95</v>
       </c>
-      <c r="T9" s="7">
+      <c r="U9" s="7">
         <v>1</v>
       </c>
-      <c r="U9" s="7">
+      <c r="V9" s="7">
         <v>0.02</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
         <v>25.4</v>
       </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
       <c r="X9" s="6">
         <v>0</v>
       </c>
@@ -1769,422 +1795,444 @@
         <v>0</v>
       </c>
       <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
         <v>5.4</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AC9" s="6">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AD9" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AE9" s="7">
         <v>0.05</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AF9" s="7">
         <v>1</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AG9" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33" ht="18">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>64</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="6">
-        <v>35.6599</v>
-      </c>
-      <c r="M10" s="6">
-        <v>139.72499999999999</v>
-      </c>
-      <c r="N10" s="6">
-        <v>3</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>3</v>
-      </c>
-      <c r="R10" s="6">
-        <v>3</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V10" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="18">
+        <v>49</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="G11" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="6">
+        <v>35.671004234852703</v>
+      </c>
+      <c r="N11" s="6">
+        <v>140.03588416210701</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="W11" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0</v>
+      </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="6"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="6">
-        <v>35.671004234852703</v>
+        <v>49</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="M12" s="6">
-        <v>140.03588416210701</v>
+        <v>35.539000000000001</v>
       </c>
       <c r="N12" s="6">
-        <v>2.5</v>
+        <v>140.1268</v>
       </c>
       <c r="O12" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P12" s="6">
         <v>0</v>
       </c>
       <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>5</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="W12" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AD12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S12" s="7">
+      <c r="AE12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="7">
         <v>0.95</v>
       </c>
-      <c r="T12" s="7">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V12" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-    </row>
-    <row r="13" spans="1:32">
+    </row>
+    <row r="13" spans="1:33" ht="17.399999999999999">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>81</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="6">
-        <v>35.539000000000001</v>
-      </c>
-      <c r="M13" s="6">
-        <v>140.1268</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>5</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="T13" s="7">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V13" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="17.399999999999999">
+        <v>62</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="G14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-    </row>
-    <row r="15" spans="1:32" ht="18">
+        <v>49</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="6">
+        <v>35.6599</v>
+      </c>
+      <c r="N14" s="6">
+        <v>139.72499999999999</v>
+      </c>
+      <c r="O14" s="6">
+        <v>3</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>3</v>
+      </c>
+      <c r="S14" s="6">
+        <v>3</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="W14" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="18">
+      <c r="D15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" ht="18">
+      <c r="L15" s="20"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" ht="18">
       <c r="D16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="20"/>
@@ -2192,9 +2240,10 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" ht="18">
+      <c r="L16" s="20"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" ht="18">
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="20"/>
@@ -2202,9 +2251,10 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="2:12" ht="18">
+      <c r="L17" s="20"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="18">
       <c r="D18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="20"/>
@@ -2212,9 +2262,10 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="2:12" ht="18">
+      <c r="L18" s="20"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" ht="18">
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="20"/>
@@ -2222,9 +2273,10 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="2:12" ht="18">
+      <c r="L19" s="20"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" ht="18">
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="20"/>
@@ -2232,9 +2284,12 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" ht="18">
+      <c r="L20" s="20"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="18">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="20"/>
@@ -2242,21 +2297,23 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="2:12" ht="18">
+      <c r="L21" s="20"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="17.399999999999999">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="10"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="2:12" ht="17.399999999999999">
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:13" ht="17.399999999999999">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -2267,8 +2324,9 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="2:12" ht="17.399999999999999">
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:13" ht="17.399999999999999">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2279,18 +2337,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="2:12" ht="17.399999999999999">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="L24" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2298,12 +2345,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C14 H3:K14</xm:sqref>
+          <xm:sqref>H3:L14 C3:C14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2323,12 +2370,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
